--- a/source/excel/all_stamps_visited.xlsx
+++ b/source/excel/all_stamps_visited.xlsx
@@ -1148,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1198,13 +1198,13 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1498,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
